--- a/data_usr.xlsx
+++ b/data_usr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://viettelgroup-my.sharepoint.com/personal/thiennlh1_viettel_com_vn/Documents/hoc_code/eticket/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_040C2E51CB64FF18F55B1250EA3161BAE35B32FB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{35774122-ED94-49B0-826D-9321D019705B}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_040C2E51CB64FF18F55B1250EA3161BAE35B32FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77665C21-6BC9-4D46-A8CE-C30B1A658DE9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10021" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10022" uniqueCount="2288">
   <si>
     <t>checkinFromCamera</t>
   </si>
@@ -6871,13 +6871,31 @@
   </si>
   <si>
     <t>Nguyễn đức hoàng minh</t>
+  </si>
+  <si>
+    <t>year_hien_tai</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Hiếu</t>
+  </si>
+  <si>
+    <t>033076004937</t>
+  </si>
+  <si>
+    <t>0961882776</t>
+  </si>
+  <si>
+    <t>22-02-2022</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6889,6 +6907,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -6914,11 +6938,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7260,21 +7285,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V580"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F369" workbookViewId="0">
-      <selection activeCell="T385" sqref="T385"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.75" customWidth="1"/>
+    <col min="21" max="21" width="19.69921875" customWidth="1"/>
     <col min="22" max="22" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7342,7 +7367,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -7410,7 +7435,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -7475,7 +7500,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="b">
         <v>0</v>
       </c>
@@ -7534,7 +7559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="b">
         <v>0</v>
       </c>
@@ -7596,7 +7621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -7658,7 +7683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -7720,7 +7745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -7779,7 +7804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="b">
         <v>0</v>
       </c>
@@ -7838,7 +7863,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="b">
         <v>0</v>
       </c>
@@ -7897,7 +7922,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="b">
         <v>0</v>
       </c>
@@ -7920,7 +7945,7 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>110</v>
+        <v>2282</v>
       </c>
       <c r="I11" t="s">
         <v>111</v>
@@ -7956,7 +7981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="b">
         <v>0</v>
       </c>
@@ -8015,7 +8040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="b">
         <v>0</v>
       </c>
@@ -8037,24 +8062,22 @@
       <c r="G13" t="s">
         <v>24</v>
       </c>
-      <c r="H13" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" t="s">
-        <v>129</v>
-      </c>
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-      <c r="L13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" t="s">
-        <v>30</v>
-      </c>
+      <c r="H13" s="4" t="s">
+        <v>2283</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2284</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>2285</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="4"/>
       <c r="N13" t="s">
         <v>30</v>
       </c>
@@ -8073,8 +8096,14 @@
       <c r="T13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U13" t="s">
+        <v>2287</v>
+      </c>
+      <c r="V13" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="b">
         <v>0</v>
       </c>
@@ -8133,7 +8162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="b">
         <v>0</v>
       </c>
@@ -8192,7 +8221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="b">
         <v>0</v>
       </c>
@@ -8251,7 +8280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="b">
         <v>0</v>
       </c>
@@ -8310,7 +8339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="b">
         <v>0</v>
       </c>
@@ -8369,7 +8398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="b">
         <v>0</v>
       </c>
@@ -8428,7 +8457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="b">
         <v>0</v>
       </c>
@@ -8487,7 +8516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="b">
         <v>0</v>
       </c>
@@ -8546,7 +8575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="b">
         <v>0</v>
       </c>
@@ -8605,7 +8634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="b">
         <v>0</v>
       </c>
@@ -8664,7 +8693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="b">
         <v>0</v>
       </c>
@@ -8726,7 +8755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="b">
         <v>0</v>
       </c>
@@ -8788,7 +8817,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="b">
         <v>0</v>
       </c>
@@ -8850,7 +8879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="b">
         <v>0</v>
       </c>
@@ -8909,7 +8938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="b">
         <v>0</v>
       </c>
@@ -8968,7 +8997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="b">
         <v>0</v>
       </c>
@@ -9027,7 +9056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="b">
         <v>0</v>
       </c>
@@ -9086,7 +9115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="b">
         <v>0</v>
       </c>
@@ -9145,7 +9174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="b">
         <v>0</v>
       </c>
@@ -9204,7 +9233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="b">
         <v>0</v>
       </c>
@@ -9263,7 +9292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="b">
         <v>0</v>
       </c>
@@ -9322,7 +9351,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="b">
         <v>0</v>
       </c>
@@ -9381,7 +9410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="b">
         <v>0</v>
       </c>
@@ -9443,7 +9472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="b">
         <v>0</v>
       </c>
@@ -9502,7 +9531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="b">
         <v>0</v>
       </c>
@@ -9564,7 +9593,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="b">
         <v>0</v>
       </c>
@@ -9623,7 +9652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="b">
         <v>0</v>
       </c>
@@ -9682,7 +9711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="b">
         <v>0</v>
       </c>
@@ -9741,7 +9770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="b">
         <v>0</v>
       </c>
@@ -9800,7 +9829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="b">
         <v>0</v>
       </c>
@@ -9859,7 +9888,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="b">
         <v>0</v>
       </c>
@@ -9918,7 +9947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="b">
         <v>0</v>
       </c>
@@ -9980,7 +10009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="b">
         <v>0</v>
       </c>
@@ -10039,7 +10068,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="b">
         <v>0</v>
       </c>
@@ -10098,7 +10127,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="b">
         <v>0</v>
       </c>
@@ -10157,7 +10186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="b">
         <v>0</v>
       </c>
@@ -10216,7 +10245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="b">
         <v>0</v>
       </c>
@@ -10275,7 +10304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="b">
         <v>0</v>
       </c>
@@ -10337,7 +10366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="b">
         <v>0</v>
       </c>
@@ -10396,7 +10425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="b">
         <v>0</v>
       </c>
@@ -10455,7 +10484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="b">
         <v>0</v>
       </c>
@@ -10517,7 +10546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="b">
         <v>0</v>
       </c>
@@ -10579,7 +10608,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="b">
         <v>0</v>
       </c>
@@ -10638,7 +10667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="b">
         <v>0</v>
       </c>
@@ -10697,7 +10726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="b">
         <v>0</v>
       </c>
@@ -10756,7 +10785,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="b">
         <v>0</v>
       </c>
@@ -10815,7 +10844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="b">
         <v>0</v>
       </c>
@@ -10874,7 +10903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="b">
         <v>0</v>
       </c>
@@ -10933,7 +10962,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="b">
         <v>0</v>
       </c>
@@ -10995,7 +11024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="b">
         <v>0</v>
       </c>
@@ -11057,7 +11086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="b">
         <v>0</v>
       </c>
@@ -11116,7 +11145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" t="b">
         <v>0</v>
       </c>
@@ -11175,7 +11204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" t="b">
         <v>0</v>
       </c>
@@ -11237,7 +11266,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" t="b">
         <v>0</v>
       </c>
@@ -11299,7 +11328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" t="b">
         <v>0</v>
       </c>
@@ -11358,7 +11387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="b">
         <v>0</v>
       </c>
@@ -11417,7 +11446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" t="b">
         <v>0</v>
       </c>
@@ -11476,7 +11505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" t="b">
         <v>0</v>
       </c>
@@ -11535,7 +11564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" t="b">
         <v>0</v>
       </c>
@@ -11594,7 +11623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="b">
         <v>0</v>
       </c>
@@ -11659,7 +11688,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" t="b">
         <v>0</v>
       </c>
@@ -11721,7 +11750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" t="b">
         <v>0</v>
       </c>
@@ -11780,7 +11809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" t="b">
         <v>0</v>
       </c>
@@ -11839,7 +11868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" t="b">
         <v>0</v>
       </c>
@@ -11901,7 +11930,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" t="b">
         <v>0</v>
       </c>
@@ -11960,7 +11989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" t="b">
         <v>0</v>
       </c>
@@ -12019,7 +12048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" t="b">
         <v>0</v>
       </c>
@@ -12081,7 +12110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="b">
         <v>0</v>
       </c>
@@ -12143,7 +12172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="b">
         <v>0</v>
       </c>
@@ -12202,7 +12231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="b">
         <v>0</v>
       </c>
@@ -12261,7 +12290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="b">
         <v>0</v>
       </c>
@@ -12320,7 +12349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="b">
         <v>0</v>
       </c>
@@ -12382,7 +12411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="b">
         <v>0</v>
       </c>
@@ -12441,7 +12470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="b">
         <v>0</v>
       </c>
@@ -12500,7 +12529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="b">
         <v>0</v>
       </c>
@@ -12562,7 +12591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="b">
         <v>0</v>
       </c>
@@ -12624,7 +12653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="b">
         <v>0</v>
       </c>
@@ -12683,7 +12712,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="b">
         <v>0</v>
       </c>
@@ -12742,7 +12771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="b">
         <v>0</v>
       </c>
@@ -12804,7 +12833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="b">
         <v>0</v>
       </c>
@@ -12863,7 +12892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="b">
         <v>0</v>
       </c>
@@ -12922,7 +12951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="b">
         <v>0</v>
       </c>
@@ -12981,7 +13010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="b">
         <v>0</v>
       </c>
@@ -13040,7 +13069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="b">
         <v>0</v>
       </c>
@@ -13099,7 +13128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="b">
         <v>0</v>
       </c>
@@ -13158,7 +13187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="b">
         <v>0</v>
       </c>
@@ -13217,7 +13246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="b">
         <v>0</v>
       </c>
@@ -13276,7 +13305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" t="b">
         <v>0</v>
       </c>
@@ -13335,7 +13364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" t="b">
         <v>0</v>
       </c>
@@ -13394,7 +13423,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" t="b">
         <v>0</v>
       </c>
@@ -13456,7 +13485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" t="b">
         <v>0</v>
       </c>
@@ -13515,7 +13544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" t="b">
         <v>0</v>
       </c>
@@ -13574,7 +13603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" t="b">
         <v>0</v>
       </c>
@@ -13633,7 +13662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" t="b">
         <v>0</v>
       </c>
@@ -13692,7 +13721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" t="b">
         <v>0</v>
       </c>
@@ -13751,7 +13780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" t="b">
         <v>0</v>
       </c>
@@ -13810,7 +13839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" t="b">
         <v>0</v>
       </c>
@@ -13869,7 +13898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" t="b">
         <v>0</v>
       </c>
@@ -13928,7 +13957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" t="b">
         <v>0</v>
       </c>
@@ -13987,7 +14016,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" t="b">
         <v>0</v>
       </c>
@@ -14046,7 +14075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A114" t="b">
         <v>0</v>
       </c>
@@ -14105,7 +14134,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A115" t="b">
         <v>0</v>
       </c>
@@ -14164,7 +14193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A116" t="b">
         <v>0</v>
       </c>
@@ -14223,7 +14252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A117" t="b">
         <v>0</v>
       </c>
@@ -14282,7 +14311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A118" t="b">
         <v>0</v>
       </c>
@@ -14341,7 +14370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A119" t="b">
         <v>0</v>
       </c>
@@ -14400,7 +14429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A120" t="b">
         <v>0</v>
       </c>
@@ -14459,7 +14488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A121" t="b">
         <v>0</v>
       </c>
@@ -14518,7 +14547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A122" t="b">
         <v>0</v>
       </c>
@@ -14577,7 +14606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A123" t="b">
         <v>0</v>
       </c>
@@ -14636,7 +14665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A124" t="b">
         <v>0</v>
       </c>
@@ -14695,7 +14724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A125" t="b">
         <v>0</v>
       </c>
@@ -14754,7 +14783,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A126" t="b">
         <v>0</v>
       </c>
@@ -14813,7 +14842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A127" t="b">
         <v>0</v>
       </c>
@@ -14872,7 +14901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A128" t="b">
         <v>0</v>
       </c>
@@ -14931,7 +14960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A129" t="b">
         <v>0</v>
       </c>
@@ -14993,7 +15022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A130" t="b">
         <v>0</v>
       </c>
@@ -15055,7 +15084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A131" t="b">
         <v>0</v>
       </c>
@@ -15114,7 +15143,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A132" t="b">
         <v>0</v>
       </c>
@@ -15173,7 +15202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A133" t="b">
         <v>0</v>
       </c>
@@ -15232,7 +15261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A134" t="b">
         <v>0</v>
       </c>
@@ -15291,7 +15320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A135" t="b">
         <v>0</v>
       </c>
@@ -15353,7 +15382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A136" t="b">
         <v>0</v>
       </c>
@@ -15415,7 +15444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A137" t="b">
         <v>0</v>
       </c>
@@ -15477,7 +15506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A138" t="b">
         <v>0</v>
       </c>
@@ -15539,7 +15568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A139" t="b">
         <v>0</v>
       </c>
@@ -15598,7 +15627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A140" t="b">
         <v>0</v>
       </c>
@@ -15660,7 +15689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A141" t="b">
         <v>0</v>
       </c>
@@ -15722,7 +15751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A142" t="b">
         <v>0</v>
       </c>
@@ -15781,7 +15810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A143" t="b">
         <v>0</v>
       </c>
@@ -15840,7 +15869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A144" t="b">
         <v>0</v>
       </c>
@@ -15899,7 +15928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145" t="b">
         <v>0</v>
       </c>
@@ -15958,7 +15987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146" t="b">
         <v>0</v>
       </c>
@@ -16017,7 +16046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147" t="b">
         <v>0</v>
       </c>
@@ -16076,7 +16105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148" t="b">
         <v>0</v>
       </c>
@@ -16138,7 +16167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149" t="b">
         <v>0</v>
       </c>
@@ -16197,7 +16226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150" t="b">
         <v>0</v>
       </c>
@@ -16256,7 +16285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151" t="b">
         <v>0</v>
       </c>
@@ -16315,7 +16344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152" t="b">
         <v>0</v>
       </c>
@@ -16374,7 +16403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153" t="b">
         <v>0</v>
       </c>
@@ -16436,7 +16465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154" t="b">
         <v>0</v>
       </c>
@@ -16495,7 +16524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155" t="b">
         <v>0</v>
       </c>
@@ -16554,7 +16583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156" t="b">
         <v>0</v>
       </c>
@@ -16616,7 +16645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157" t="b">
         <v>0</v>
       </c>
@@ -16675,7 +16704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158" t="b">
         <v>0</v>
       </c>
@@ -16734,7 +16763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159" t="b">
         <v>0</v>
       </c>
@@ -16793,7 +16822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160" t="b">
         <v>0</v>
       </c>
@@ -16852,7 +16881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" t="b">
         <v>0</v>
       </c>
@@ -16911,7 +16940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" t="b">
         <v>0</v>
       </c>
@@ -16970,7 +16999,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" t="b">
         <v>0</v>
       </c>
@@ -17029,7 +17058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" t="b">
         <v>0</v>
       </c>
@@ -17091,7 +17120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" t="b">
         <v>0</v>
       </c>
@@ -17150,7 +17179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" t="b">
         <v>0</v>
       </c>
@@ -17209,7 +17238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" t="b">
         <v>0</v>
       </c>
@@ -17271,7 +17300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" t="b">
         <v>0</v>
       </c>
@@ -17330,7 +17359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" t="b">
         <v>0</v>
       </c>
@@ -17389,7 +17418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" t="b">
         <v>0</v>
       </c>
@@ -17451,7 +17480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" t="b">
         <v>0</v>
       </c>
@@ -17510,7 +17539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" t="b">
         <v>0</v>
       </c>
@@ -17569,7 +17598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" t="b">
         <v>0</v>
       </c>
@@ -17631,7 +17660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" t="b">
         <v>0</v>
       </c>
@@ -17690,7 +17719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" t="b">
         <v>0</v>
       </c>
@@ -17749,7 +17778,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" t="b">
         <v>0</v>
       </c>
@@ -17808,7 +17837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A177" t="b">
         <v>0</v>
       </c>
@@ -17867,7 +17896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A178" t="b">
         <v>0</v>
       </c>
@@ -17926,7 +17955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A179" t="b">
         <v>0</v>
       </c>
@@ -17988,7 +18017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A180" t="b">
         <v>0</v>
       </c>
@@ -18047,7 +18076,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" t="b">
         <v>0</v>
       </c>
@@ -18106,7 +18135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A182" t="b">
         <v>0</v>
       </c>
@@ -18171,7 +18200,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A183" t="b">
         <v>0</v>
       </c>
@@ -18230,7 +18259,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A184" t="b">
         <v>0</v>
       </c>
@@ -18289,7 +18318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A185" t="b">
         <v>0</v>
       </c>
@@ -18348,7 +18377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A186" t="b">
         <v>0</v>
       </c>
@@ -18407,7 +18436,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A187" t="b">
         <v>0</v>
       </c>
@@ -18466,7 +18495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" t="b">
         <v>0</v>
       </c>
@@ -18525,7 +18554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" t="b">
         <v>0</v>
       </c>
@@ -18584,7 +18613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" t="b">
         <v>0</v>
       </c>
@@ -18643,7 +18672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" t="b">
         <v>0</v>
       </c>
@@ -18702,7 +18731,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" t="b">
         <v>0</v>
       </c>
@@ -18761,7 +18790,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193" t="b">
         <v>0</v>
       </c>
@@ -18820,7 +18849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194" t="b">
         <v>0</v>
       </c>
@@ -18879,7 +18908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195" t="b">
         <v>0</v>
       </c>
@@ -18938,7 +18967,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196" t="b">
         <v>0</v>
       </c>
@@ -18997,7 +19026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197" t="b">
         <v>0</v>
       </c>
@@ -19056,7 +19085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198" t="b">
         <v>0</v>
       </c>
@@ -19115,7 +19144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199" t="b">
         <v>0</v>
       </c>
@@ -19174,7 +19203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200" t="b">
         <v>0</v>
       </c>
@@ -19233,7 +19262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201" t="b">
         <v>0</v>
       </c>
@@ -19295,7 +19324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202" t="b">
         <v>0</v>
       </c>
@@ -19357,7 +19386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203" t="b">
         <v>0</v>
       </c>
@@ -19416,7 +19445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204" t="b">
         <v>0</v>
       </c>
@@ -19478,7 +19507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205" t="b">
         <v>0</v>
       </c>
@@ -19537,7 +19566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206" t="b">
         <v>0</v>
       </c>
@@ -19596,7 +19625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207" t="b">
         <v>0</v>
       </c>
@@ -19655,7 +19684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208" t="b">
         <v>0</v>
       </c>
@@ -19717,7 +19746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A209" t="b">
         <v>0</v>
       </c>
@@ -19776,7 +19805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A210" t="b">
         <v>0</v>
       </c>
@@ -19835,7 +19864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A211" t="b">
         <v>0</v>
       </c>
@@ -19894,7 +19923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A212" t="b">
         <v>0</v>
       </c>
@@ -19956,7 +19985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A213" t="b">
         <v>0</v>
       </c>
@@ -20015,7 +20044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A214" t="b">
         <v>0</v>
       </c>
@@ -20074,7 +20103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A215" t="b">
         <v>0</v>
       </c>
@@ -20133,7 +20162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A216" t="b">
         <v>0</v>
       </c>
@@ -20192,7 +20221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A217" t="b">
         <v>0</v>
       </c>
@@ -20251,7 +20280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A218" t="b">
         <v>0</v>
       </c>
@@ -20313,7 +20342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A219" t="b">
         <v>0</v>
       </c>
@@ -20375,7 +20404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A220" t="b">
         <v>0</v>
       </c>
@@ -20434,7 +20463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A221" t="b">
         <v>0</v>
       </c>
@@ -20493,7 +20522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A222" t="b">
         <v>0</v>
       </c>
@@ -20552,7 +20581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A223" t="b">
         <v>0</v>
       </c>
@@ -20611,7 +20640,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A224" t="b">
         <v>0</v>
       </c>
@@ -20670,7 +20699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A225" t="b">
         <v>0</v>
       </c>
@@ -20732,7 +20761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A226" t="b">
         <v>0</v>
       </c>
@@ -20791,7 +20820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A227" t="b">
         <v>0</v>
       </c>
@@ -20850,7 +20879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A228" t="b">
         <v>0</v>
       </c>
@@ -20909,7 +20938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A229" t="b">
         <v>0</v>
       </c>
@@ -20968,7 +20997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A230" t="b">
         <v>0</v>
       </c>
@@ -21027,7 +21056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A231" t="b">
         <v>0</v>
       </c>
@@ -21086,7 +21115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A232" t="b">
         <v>0</v>
       </c>
@@ -21148,7 +21177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A233" t="b">
         <v>0</v>
       </c>
@@ -21207,7 +21236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A234" t="b">
         <v>0</v>
       </c>
@@ -21269,7 +21298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A235" t="b">
         <v>0</v>
       </c>
@@ -21328,7 +21357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A236" t="b">
         <v>0</v>
       </c>
@@ -21390,7 +21419,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A237" t="b">
         <v>0</v>
       </c>
@@ -21452,7 +21481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A238" t="b">
         <v>0</v>
       </c>
@@ -21511,7 +21540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A239" t="b">
         <v>0</v>
       </c>
@@ -21570,7 +21599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A240" t="b">
         <v>0</v>
       </c>
@@ -21629,7 +21658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A241" t="b">
         <v>0</v>
       </c>
@@ -21691,7 +21720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A242" t="b">
         <v>0</v>
       </c>
@@ -21750,7 +21779,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A243" t="b">
         <v>0</v>
       </c>
@@ -21809,7 +21838,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A244" t="b">
         <v>0</v>
       </c>
@@ -21871,7 +21900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A245" t="b">
         <v>0</v>
       </c>
@@ -21930,7 +21959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A246" t="b">
         <v>0</v>
       </c>
@@ -21989,7 +22018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A247" t="b">
         <v>0</v>
       </c>
@@ -22051,7 +22080,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A248" t="b">
         <v>0</v>
       </c>
@@ -22110,7 +22139,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A249" t="b">
         <v>0</v>
       </c>
@@ -22169,7 +22198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A250" t="b">
         <v>0</v>
       </c>
@@ -22228,7 +22257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A251" t="b">
         <v>0</v>
       </c>
@@ -22287,7 +22316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A252" t="b">
         <v>0</v>
       </c>
@@ -22349,7 +22378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A253" t="b">
         <v>0</v>
       </c>
@@ -22408,7 +22437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A254" t="b">
         <v>0</v>
       </c>
@@ -22470,7 +22499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A255" t="b">
         <v>0</v>
       </c>
@@ -22529,7 +22558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A256" t="b">
         <v>0</v>
       </c>
@@ -22591,7 +22620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A257" t="b">
         <v>0</v>
       </c>
@@ -22650,7 +22679,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A258" t="b">
         <v>0</v>
       </c>
@@ -22709,7 +22738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A259" t="b">
         <v>0</v>
       </c>
@@ -22768,7 +22797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A260" t="b">
         <v>0</v>
       </c>
@@ -22827,7 +22856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A261" t="b">
         <v>0</v>
       </c>
@@ -22886,7 +22915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A262" t="b">
         <v>0</v>
       </c>
@@ -22945,7 +22974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A263" t="b">
         <v>0</v>
       </c>
@@ -23004,7 +23033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A264" t="b">
         <v>0</v>
       </c>
@@ -23063,7 +23092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A265" t="b">
         <v>0</v>
       </c>
@@ -23125,7 +23154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A266" t="b">
         <v>0</v>
       </c>
@@ -23184,7 +23213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A267" t="b">
         <v>0</v>
       </c>
@@ -23243,7 +23272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A268" t="b">
         <v>0</v>
       </c>
@@ -23302,7 +23331,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A269" t="b">
         <v>0</v>
       </c>
@@ -23361,7 +23390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A270" t="b">
         <v>0</v>
       </c>
@@ -23420,7 +23449,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A271" t="b">
         <v>0</v>
       </c>
@@ -23479,7 +23508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A272" t="b">
         <v>0</v>
       </c>
@@ -23538,7 +23567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A273" t="b">
         <v>0</v>
       </c>
@@ -23597,7 +23626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A274" t="b">
         <v>0</v>
       </c>
@@ -23656,7 +23685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A275" t="b">
         <v>0</v>
       </c>
@@ -23715,7 +23744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A276" t="b">
         <v>0</v>
       </c>
@@ -23774,7 +23803,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A277" t="b">
         <v>0</v>
       </c>
@@ -23833,7 +23862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A278" t="b">
         <v>0</v>
       </c>
@@ -23892,7 +23921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A279" t="b">
         <v>0</v>
       </c>
@@ -23954,7 +23983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A280" t="b">
         <v>0</v>
       </c>
@@ -24013,7 +24042,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A281" t="b">
         <v>0</v>
       </c>
@@ -24072,7 +24101,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A282" t="b">
         <v>0</v>
       </c>
@@ -24131,7 +24160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A283" t="b">
         <v>0</v>
       </c>
@@ -24193,7 +24222,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A284" t="b">
         <v>0</v>
       </c>
@@ -24255,7 +24284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A285" t="b">
         <v>0</v>
       </c>
@@ -24314,7 +24343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A286" t="b">
         <v>0</v>
       </c>
@@ -24373,7 +24402,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A287" t="b">
         <v>0</v>
       </c>
@@ -24432,7 +24461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A288" t="b">
         <v>0</v>
       </c>
@@ -24491,7 +24520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A289" t="b">
         <v>0</v>
       </c>
@@ -24550,7 +24579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A290" t="b">
         <v>0</v>
       </c>
@@ -24612,7 +24641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A291" t="b">
         <v>0</v>
       </c>
@@ -24674,7 +24703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A292" t="b">
         <v>0</v>
       </c>
@@ -24736,7 +24765,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A293" t="b">
         <v>0</v>
       </c>
@@ -24798,7 +24827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A294" t="b">
         <v>0</v>
       </c>
@@ -24857,7 +24886,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A295" t="b">
         <v>0</v>
       </c>
@@ -24919,7 +24948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A296" t="b">
         <v>0</v>
       </c>
@@ -24981,7 +25010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A297" t="b">
         <v>0</v>
       </c>
@@ -25040,7 +25069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A298" t="b">
         <v>0</v>
       </c>
@@ -25102,7 +25131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A299" t="b">
         <v>0</v>
       </c>
@@ -25164,7 +25193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A300" t="b">
         <v>0</v>
       </c>
@@ -25223,7 +25252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A301" t="b">
         <v>0</v>
       </c>
@@ -25282,7 +25311,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A302" t="b">
         <v>0</v>
       </c>
@@ -25341,7 +25370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A303" t="b">
         <v>0</v>
       </c>
@@ -25403,7 +25432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A304" t="b">
         <v>0</v>
       </c>
@@ -25465,7 +25494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A305" t="b">
         <v>0</v>
       </c>
@@ -25524,7 +25553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A306" t="b">
         <v>0</v>
       </c>
@@ -25583,7 +25612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A307" t="b">
         <v>0</v>
       </c>
@@ -25645,7 +25674,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A308" t="b">
         <v>0</v>
       </c>
@@ -25704,7 +25733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A309" t="b">
         <v>0</v>
       </c>
@@ -25763,7 +25792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A310" t="b">
         <v>0</v>
       </c>
@@ -25822,7 +25851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A311" t="b">
         <v>0</v>
       </c>
@@ -25881,7 +25910,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A312" t="b">
         <v>0</v>
       </c>
@@ -25940,7 +25969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A313" t="b">
         <v>0</v>
       </c>
@@ -25999,7 +26028,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A314" t="b">
         <v>0</v>
       </c>
@@ -26058,7 +26087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A315" t="b">
         <v>0</v>
       </c>
@@ -26117,7 +26146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A316" t="b">
         <v>0</v>
       </c>
@@ -26176,7 +26205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A317" t="b">
         <v>0</v>
       </c>
@@ -26235,7 +26264,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A318" t="b">
         <v>0</v>
       </c>
@@ -26294,7 +26323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A319" t="b">
         <v>0</v>
       </c>
@@ -26356,7 +26385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A320" t="b">
         <v>0</v>
       </c>
@@ -26418,7 +26447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A321" t="b">
         <v>0</v>
       </c>
@@ -26480,7 +26509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A322" t="b">
         <v>0</v>
       </c>
@@ -26542,7 +26571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A323" t="b">
         <v>0</v>
       </c>
@@ -26604,7 +26633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A324" t="b">
         <v>0</v>
       </c>
@@ -26663,7 +26692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A325" t="b">
         <v>0</v>
       </c>
@@ -26725,7 +26754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A326" t="b">
         <v>0</v>
       </c>
@@ -26784,7 +26813,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A327" t="b">
         <v>0</v>
       </c>
@@ -26843,7 +26872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -26902,7 +26931,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A329" t="b">
         <v>0</v>
       </c>
@@ -26961,7 +26990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A330" t="b">
         <v>0</v>
       </c>
@@ -27020,7 +27049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A331" t="b">
         <v>0</v>
       </c>
@@ -27079,7 +27108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A332" t="b">
         <v>0</v>
       </c>
@@ -27138,7 +27167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A333" t="b">
         <v>0</v>
       </c>
@@ -27197,7 +27226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A334" t="b">
         <v>0</v>
       </c>
@@ -27256,7 +27285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A335" t="b">
         <v>0</v>
       </c>
@@ -27315,7 +27344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -27374,7 +27403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A337" t="b">
         <v>0</v>
       </c>
@@ -27433,7 +27462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="338" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A338" t="b">
         <v>0</v>
       </c>
@@ -27495,7 +27524,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="339" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A339" t="b">
         <v>0</v>
       </c>
@@ -27557,7 +27586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A340" t="b">
         <v>0</v>
       </c>
@@ -27616,7 +27645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A341" t="b">
         <v>0</v>
       </c>
@@ -27675,7 +27704,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A342" t="b">
         <v>0</v>
       </c>
@@ -27737,7 +27766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A343" t="b">
         <v>0</v>
       </c>
@@ -27796,7 +27825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="344" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A344" t="b">
         <v>0</v>
       </c>
@@ -27855,7 +27884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -27914,7 +27943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="346" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A346" t="b">
         <v>0</v>
       </c>
@@ -27973,7 +28002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="347" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -28032,7 +28061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A348" t="b">
         <v>0</v>
       </c>
@@ -28091,7 +28120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A349" t="b">
         <v>0</v>
       </c>
@@ -28150,7 +28179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="350" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A350" t="b">
         <v>0</v>
       </c>
@@ -28209,7 +28238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="351" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A351" t="b">
         <v>0</v>
       </c>
@@ -28271,7 +28300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A352" t="b">
         <v>0</v>
       </c>
@@ -28330,7 +28359,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="353" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A353" t="b">
         <v>0</v>
       </c>
@@ -28389,7 +28418,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A354" t="b">
         <v>0</v>
       </c>
@@ -28448,7 +28477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="355" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A355" t="b">
         <v>0</v>
       </c>
@@ -28510,7 +28539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A356" t="b">
         <v>0</v>
       </c>
@@ -28569,7 +28598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -28628,7 +28657,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A358" t="b">
         <v>0</v>
       </c>
@@ -28687,7 +28716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A359" t="b">
         <v>0</v>
       </c>
@@ -28746,7 +28775,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="360" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -28808,7 +28837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A361" t="b">
         <v>0</v>
       </c>
@@ -28867,7 +28896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="362" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A362" t="b">
         <v>0</v>
       </c>
@@ -28926,7 +28955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="363" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -28985,7 +29014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="364" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A364" t="b">
         <v>0</v>
       </c>
@@ -29044,7 +29073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="365" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -29103,7 +29132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A366" t="b">
         <v>0</v>
       </c>
@@ -29165,7 +29194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="367" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A367" t="b">
         <v>0</v>
       </c>
@@ -29224,7 +29253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="368" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A368" t="b">
         <v>0</v>
       </c>
@@ -29283,7 +29312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A369" t="b">
         <v>0</v>
       </c>
@@ -29342,7 +29371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A370" t="b">
         <v>0</v>
       </c>
@@ -29401,7 +29430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="371" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A371" t="b">
         <v>0</v>
       </c>
@@ -29463,7 +29492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A372" t="b">
         <v>0</v>
       </c>
@@ -29525,7 +29554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A373" t="b">
         <v>0</v>
       </c>
@@ -29584,7 +29613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A374" t="b">
         <v>0</v>
       </c>
@@ -29646,7 +29675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A375" t="b">
         <v>0</v>
       </c>
@@ -29705,7 +29734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A376" t="b">
         <v>0</v>
       </c>
@@ -29764,7 +29793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="377" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A377" t="b">
         <v>0</v>
       </c>
@@ -29823,7 +29852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A378" t="b">
         <v>0</v>
       </c>
@@ -29885,7 +29914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A379" t="b">
         <v>0</v>
       </c>
@@ -29944,7 +29973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A380" t="b">
         <v>0</v>
       </c>
@@ -30006,7 +30035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A381" t="b">
         <v>0</v>
       </c>
@@ -30065,7 +30094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="382" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A382" t="b">
         <v>0</v>
       </c>
@@ -30127,7 +30156,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="383" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A383" t="b">
         <v>0</v>
       </c>
@@ -30186,7 +30215,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="384" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A384" t="b">
         <v>0</v>
       </c>
@@ -30245,7 +30274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A385" t="b">
         <v>0</v>
       </c>
@@ -30304,7 +30333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A386" t="b">
         <v>0</v>
       </c>
@@ -30363,7 +30392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A387" t="b">
         <v>0</v>
       </c>
@@ -30422,7 +30451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A388" t="b">
         <v>0</v>
       </c>
@@ -30481,7 +30510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A389" t="b">
         <v>0</v>
       </c>
@@ -30540,7 +30569,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A390" t="b">
         <v>0</v>
       </c>
@@ -30602,7 +30631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A391" t="b">
         <v>0</v>
       </c>
@@ -30661,7 +30690,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A392" t="b">
         <v>0</v>
       </c>
@@ -30720,7 +30749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A393" t="b">
         <v>0</v>
       </c>
@@ -30779,7 +30808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A394" t="b">
         <v>0</v>
       </c>
@@ -30841,7 +30870,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A395" t="b">
         <v>0</v>
       </c>
@@ -30900,7 +30929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A396" t="b">
         <v>0</v>
       </c>
@@ -30962,7 +30991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A397" t="b">
         <v>0</v>
       </c>
@@ -31024,7 +31053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A398" t="b">
         <v>0</v>
       </c>
@@ -31083,7 +31112,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A399" t="b">
         <v>0</v>
       </c>
@@ -31142,7 +31171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A400" t="b">
         <v>0</v>
       </c>
@@ -31201,7 +31230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="401" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A401" t="b">
         <v>0</v>
       </c>
@@ -31263,7 +31292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="402" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A402" t="b">
         <v>0</v>
       </c>
@@ -31325,7 +31354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="403" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A403" t="b">
         <v>0</v>
       </c>
@@ -31387,7 +31416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A404" t="b">
         <v>0</v>
       </c>
@@ -31446,7 +31475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A405" t="b">
         <v>0</v>
       </c>
@@ -31508,7 +31537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A406" t="b">
         <v>0</v>
       </c>
@@ -31567,7 +31596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A407" t="b">
         <v>0</v>
       </c>
@@ -31626,7 +31655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="408" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A408" t="b">
         <v>0</v>
       </c>
@@ -31685,7 +31714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="409" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A409" t="b">
         <v>0</v>
       </c>
@@ -31747,7 +31776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A410" t="b">
         <v>0</v>
       </c>
@@ -31806,7 +31835,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="411" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A411" t="b">
         <v>0</v>
       </c>
@@ -31865,7 +31894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="412" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A412" t="b">
         <v>0</v>
       </c>
@@ -31924,7 +31953,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="413" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A413" t="b">
         <v>0</v>
       </c>
@@ -31983,7 +32012,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="414" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A414" t="b">
         <v>0</v>
       </c>
@@ -32042,7 +32071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="415" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A415" t="b">
         <v>0</v>
       </c>
@@ -32104,7 +32133,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="416" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A416" t="b">
         <v>0</v>
       </c>
@@ -32166,7 +32195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="417" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A417" t="b">
         <v>0</v>
       </c>
@@ -32225,7 +32254,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A418" t="b">
         <v>0</v>
       </c>
@@ -32287,7 +32316,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="419" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A419" t="b">
         <v>0</v>
       </c>
@@ -32346,7 +32375,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="420" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A420" t="b">
         <v>0</v>
       </c>
@@ -32408,7 +32437,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="421" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A421" t="b">
         <v>0</v>
       </c>
@@ -32467,7 +32496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="422" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A422" t="b">
         <v>0</v>
       </c>
@@ -32526,7 +32555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A423" t="b">
         <v>0</v>
       </c>
@@ -32585,7 +32614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A424" t="b">
         <v>0</v>
       </c>
@@ -32644,7 +32673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="425" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A425" t="b">
         <v>0</v>
       </c>
@@ -32703,7 +32732,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="426" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A426" t="b">
         <v>0</v>
       </c>
@@ -32762,7 +32791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="427" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A427" t="b">
         <v>0</v>
       </c>
@@ -32821,7 +32850,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A428" t="b">
         <v>0</v>
       </c>
@@ -32880,7 +32909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="429" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A429" t="b">
         <v>0</v>
       </c>
@@ -32939,7 +32968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="430" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A430" t="b">
         <v>0</v>
       </c>
@@ -33001,7 +33030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="431" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A431" t="b">
         <v>0</v>
       </c>
@@ -33063,7 +33092,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="432" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A432" t="b">
         <v>0</v>
       </c>
@@ -33122,7 +33151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="433" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A433" t="b">
         <v>0</v>
       </c>
@@ -33181,7 +33210,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="434" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A434" t="b">
         <v>0</v>
       </c>
@@ -33240,7 +33269,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="435" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A435" t="b">
         <v>0</v>
       </c>
@@ -33299,7 +33328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="436" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A436" t="b">
         <v>0</v>
       </c>
@@ -33358,7 +33387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A437" t="b">
         <v>0</v>
       </c>
@@ -33417,7 +33446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A438" t="b">
         <v>0</v>
       </c>
@@ -33479,7 +33508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="439" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A439" t="b">
         <v>0</v>
       </c>
@@ -33538,7 +33567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="440" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A440" t="b">
         <v>0</v>
       </c>
@@ -33597,7 +33626,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A441" t="b">
         <v>0</v>
       </c>
@@ -33656,7 +33685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A442" t="b">
         <v>0</v>
       </c>
@@ -33718,7 +33747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="443" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A443" t="b">
         <v>0</v>
       </c>
@@ -33780,7 +33809,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A444" t="b">
         <v>0</v>
       </c>
@@ -33842,7 +33871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="445" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A445" t="b">
         <v>0</v>
       </c>
@@ -33904,7 +33933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A446" t="b">
         <v>0</v>
       </c>
@@ -33963,7 +33992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A447" t="b">
         <v>0</v>
       </c>
@@ -34022,7 +34051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A448" t="b">
         <v>0</v>
       </c>
@@ -34081,7 +34110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="449" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A449" t="b">
         <v>0</v>
       </c>
@@ -34140,7 +34169,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="450" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A450" t="b">
         <v>0</v>
       </c>
@@ -34199,7 +34228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A451" t="b">
         <v>0</v>
       </c>
@@ -34258,7 +34287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A452" t="b">
         <v>0</v>
       </c>
@@ -34320,7 +34349,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="453" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A453" t="b">
         <v>0</v>
       </c>
@@ -34382,7 +34411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="454" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A454" t="b">
         <v>0</v>
       </c>
@@ -34444,7 +34473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="455" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A455" t="b">
         <v>0</v>
       </c>
@@ -34503,7 +34532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="456" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A456" t="b">
         <v>0</v>
       </c>
@@ -34562,7 +34591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="457" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A457" t="b">
         <v>0</v>
       </c>
@@ -34621,7 +34650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="458" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A458" t="b">
         <v>0</v>
       </c>
@@ -34680,7 +34709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="459" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A459" t="b">
         <v>0</v>
       </c>
@@ -34739,7 +34768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="460" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A460" t="b">
         <v>0</v>
       </c>
@@ -34801,7 +34830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="461" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A461" t="b">
         <v>0</v>
       </c>
@@ -34863,7 +34892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A462" t="b">
         <v>0</v>
       </c>
@@ -34922,7 +34951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A463" t="b">
         <v>0</v>
       </c>
@@ -34981,7 +35010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A464" t="b">
         <v>0</v>
       </c>
@@ -35040,7 +35069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="465" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A465" t="b">
         <v>0</v>
       </c>
@@ -35102,7 +35131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="466" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A466" t="b">
         <v>0</v>
       </c>
@@ -35161,7 +35190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="467" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A467" t="b">
         <v>0</v>
       </c>
@@ -35220,7 +35249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A468" t="b">
         <v>0</v>
       </c>
@@ -35279,7 +35308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="469" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A469" t="b">
         <v>0</v>
       </c>
@@ -35338,7 +35367,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A470" t="b">
         <v>0</v>
       </c>
@@ -35397,7 +35426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="471" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A471" t="b">
         <v>0</v>
       </c>
@@ -35456,7 +35485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A472" t="b">
         <v>0</v>
       </c>
@@ -35515,7 +35544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="473" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A473" t="b">
         <v>0</v>
       </c>
@@ -35574,7 +35603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A474" t="b">
         <v>0</v>
       </c>
@@ -35633,7 +35662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="475" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A475" t="b">
         <v>0</v>
       </c>
@@ -35692,7 +35721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="476" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A476" t="b">
         <v>0</v>
       </c>
@@ -35751,7 +35780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A477" t="b">
         <v>0</v>
       </c>
@@ -35810,7 +35839,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A478" t="b">
         <v>0</v>
       </c>
@@ -35869,7 +35898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="479" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A479" t="b">
         <v>0</v>
       </c>
@@ -35931,7 +35960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="480" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A480" t="b">
         <v>0</v>
       </c>
@@ -35993,7 +36022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A481" t="b">
         <v>0</v>
       </c>
@@ -36055,7 +36084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A482" t="b">
         <v>0</v>
       </c>
@@ -36117,7 +36146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A483" t="b">
         <v>0</v>
       </c>
@@ -36179,7 +36208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A484" t="b">
         <v>0</v>
       </c>
@@ -36238,7 +36267,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A485" t="b">
         <v>0</v>
       </c>
@@ -36297,7 +36326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A486" t="b">
         <v>0</v>
       </c>
@@ -36356,7 +36385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A487" t="b">
         <v>0</v>
       </c>
@@ -36415,7 +36444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A488" t="b">
         <v>0</v>
       </c>
@@ -36477,7 +36506,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A489" t="b">
         <v>0</v>
       </c>
@@ -36536,7 +36565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A490" t="b">
         <v>0</v>
       </c>
@@ -36598,7 +36627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A491" t="b">
         <v>0</v>
       </c>
@@ -36660,7 +36689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A492" t="b">
         <v>0</v>
       </c>
@@ -36719,7 +36748,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A493" t="b">
         <v>0</v>
       </c>
@@ -36781,7 +36810,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A494" t="b">
         <v>0</v>
       </c>
@@ -36840,7 +36869,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A495" t="b">
         <v>0</v>
       </c>
@@ -36899,7 +36928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A496" t="b">
         <v>0</v>
       </c>
@@ -36958,7 +36987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="497" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A497" t="b">
         <v>0</v>
       </c>
@@ -37017,7 +37046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="498" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A498" t="b">
         <v>0</v>
       </c>
@@ -37076,7 +37105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="499" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A499" t="b">
         <v>0</v>
       </c>
@@ -37138,7 +37167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="500" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A500" t="b">
         <v>0</v>
       </c>
@@ -37197,7 +37226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="501" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A501" t="b">
         <v>0</v>
       </c>
@@ -37256,7 +37285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="502" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A502" t="b">
         <v>0</v>
       </c>
@@ -37315,7 +37344,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A503" t="b">
         <v>0</v>
       </c>
@@ -37374,7 +37403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="504" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A504" t="b">
         <v>0</v>
       </c>
@@ -37433,7 +37462,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="505" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A505" t="b">
         <v>0</v>
       </c>
@@ -37492,7 +37521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="506" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A506" t="b">
         <v>0</v>
       </c>
@@ -37551,7 +37580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="507" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A507" t="b">
         <v>0</v>
       </c>
@@ -37610,7 +37639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="508" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A508" t="b">
         <v>0</v>
       </c>
@@ -37669,7 +37698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="509" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A509" t="b">
         <v>0</v>
       </c>
@@ -37728,7 +37757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="510" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A510" t="b">
         <v>0</v>
       </c>
@@ -37787,7 +37816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="511" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A511" t="b">
         <v>0</v>
       </c>
@@ -37846,7 +37875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="512" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A512" t="b">
         <v>0</v>
       </c>
@@ -37905,7 +37934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="513" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A513" t="b">
         <v>0</v>
       </c>
@@ -37964,7 +37993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="514" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A514" t="b">
         <v>0</v>
       </c>
@@ -38023,7 +38052,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="515" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A515" t="b">
         <v>0</v>
       </c>
@@ -38082,7 +38111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="516" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A516" t="b">
         <v>0</v>
       </c>
@@ -38144,7 +38173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="517" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A517" t="b">
         <v>0</v>
       </c>
@@ -38206,7 +38235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="518" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A518" t="b">
         <v>0</v>
       </c>
@@ -38268,7 +38297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="519" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A519" t="b">
         <v>0</v>
       </c>
@@ -38327,7 +38356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="520" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A520" t="b">
         <v>0</v>
       </c>
@@ -38386,7 +38415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="521" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A521" t="b">
         <v>0</v>
       </c>
@@ -38448,7 +38477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="522" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A522" t="b">
         <v>0</v>
       </c>
@@ -38510,7 +38539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="523" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A523" t="b">
         <v>0</v>
       </c>
@@ -38572,7 +38601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="524" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A524" t="b">
         <v>0</v>
       </c>
@@ -38634,7 +38663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="525" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A525" t="b">
         <v>0</v>
       </c>
@@ -38696,7 +38725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A526" t="b">
         <v>0</v>
       </c>
@@ -38755,7 +38784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="527" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A527" t="b">
         <v>0</v>
       </c>
@@ -38814,7 +38843,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="528" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A528" t="b">
         <v>0</v>
       </c>
@@ -38873,7 +38902,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="529" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A529" t="b">
         <v>0</v>
       </c>
@@ -38935,7 +38964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="530" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A530" t="b">
         <v>0</v>
       </c>
@@ -38994,7 +39023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="531" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A531" t="b">
         <v>0</v>
       </c>
@@ -39053,7 +39082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="532" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A532" t="b">
         <v>0</v>
       </c>
@@ -39115,7 +39144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="533" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A533" t="b">
         <v>0</v>
       </c>
@@ -39174,7 +39203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="534" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A534" t="b">
         <v>0</v>
       </c>
@@ -39233,7 +39262,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="535" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A535" t="b">
         <v>0</v>
       </c>
@@ -39295,7 +39324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="536" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A536" t="b">
         <v>0</v>
       </c>
@@ -39357,7 +39386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="537" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A537" t="b">
         <v>0</v>
       </c>
@@ -39416,7 +39445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="538" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A538" t="b">
         <v>0</v>
       </c>
@@ -39475,7 +39504,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="539" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A539" t="b">
         <v>0</v>
       </c>
@@ -39534,7 +39563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="540" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A540" t="b">
         <v>0</v>
       </c>
@@ -39596,7 +39625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="541" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A541" t="b">
         <v>0</v>
       </c>
@@ -39655,7 +39684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="542" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A542" t="b">
         <v>0</v>
       </c>
@@ -39717,7 +39746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="543" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A543" t="b">
         <v>0</v>
       </c>
@@ -39779,7 +39808,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="544" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A544" t="b">
         <v>0</v>
       </c>
@@ -39838,7 +39867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="545" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A545" t="b">
         <v>0</v>
       </c>
@@ -39897,7 +39926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="546" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A546" t="b">
         <v>0</v>
       </c>
@@ -39956,7 +39985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="547" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A547" t="b">
         <v>0</v>
       </c>
@@ -40015,7 +40044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="548" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A548" t="b">
         <v>0</v>
       </c>
@@ -40074,7 +40103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="549" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A549" t="b">
         <v>0</v>
       </c>
@@ -40133,7 +40162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="550" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A550" t="b">
         <v>0</v>
       </c>
@@ -40192,7 +40221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="551" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A551" t="b">
         <v>0</v>
       </c>
@@ -40254,7 +40283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="552" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A552" t="b">
         <v>0</v>
       </c>
@@ -40316,7 +40345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="553" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A553" t="b">
         <v>0</v>
       </c>
@@ -40375,7 +40404,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="554" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A554" t="b">
         <v>0</v>
       </c>
@@ -40434,7 +40463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="555" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A555" t="b">
         <v>0</v>
       </c>
@@ -40493,7 +40522,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="556" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A556" t="b">
         <v>0</v>
       </c>
@@ -40555,7 +40584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="557" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A557" t="b">
         <v>0</v>
       </c>
@@ -40617,7 +40646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="558" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A558" t="b">
         <v>0</v>
       </c>
@@ -40676,7 +40705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="559" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A559" t="b">
         <v>0</v>
       </c>
@@ -40735,7 +40764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="560" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A560" t="b">
         <v>0</v>
       </c>
@@ -40794,7 +40823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="561" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A561" t="b">
         <v>0</v>
       </c>
@@ -40853,7 +40882,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="562" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A562" t="b">
         <v>0</v>
       </c>
@@ -40912,7 +40941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="563" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A563" t="b">
         <v>0</v>
       </c>
@@ -40971,7 +41000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="564" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A564" t="b">
         <v>0</v>
       </c>
@@ -41030,7 +41059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="565" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A565" t="b">
         <v>0</v>
       </c>
@@ -41089,7 +41118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="566" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A566" t="b">
         <v>0</v>
       </c>
@@ -41148,7 +41177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="567" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A567" t="b">
         <v>0</v>
       </c>
@@ -41207,7 +41236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="568" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A568" t="b">
         <v>0</v>
       </c>
@@ -41266,7 +41295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="569" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A569" t="b">
         <v>0</v>
       </c>
@@ -41325,7 +41354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="570" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A570" t="b">
         <v>0</v>
       </c>
@@ -41384,7 +41413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="571" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A571" t="b">
         <v>0</v>
       </c>
@@ -41443,7 +41472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="572" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A572" t="b">
         <v>0</v>
       </c>
@@ -41502,7 +41531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="573" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A573" t="b">
         <v>0</v>
       </c>
@@ -41561,7 +41590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="574" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A574" t="b">
         <v>0</v>
       </c>
@@ -41620,7 +41649,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="575" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A575" t="b">
         <v>0</v>
       </c>
@@ -41679,7 +41708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="576" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A576" t="b">
         <v>0</v>
       </c>
@@ -41738,7 +41767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="577" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A577" t="b">
         <v>0</v>
       </c>
@@ -41797,7 +41826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A578" t="b">
         <v>0</v>
       </c>
@@ -41856,7 +41885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="579" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A579" t="b">
         <v>0</v>
       </c>
@@ -41915,7 +41944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="580" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A580" t="b">
         <v>0</v>
       </c>
@@ -41975,10 +42004,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:T123 A477:T482 A417:T420 A330:T330 A265:T293 A177:T183 A498:T557 A442:T476 A414:T416 A264:T264 A184:T215 A124:T176 A574:T580 A566:T573 A560:T565 A558:T559 A493:T497 A491:T492 A483:T490 A421:T441 A351:T384 A331:T350 A294:T329 A260:T263 A216:T259 A386:T413 A385:G385 J385:T385" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:T10 A477:T482 A417:T420 A330:T330 A265:T293 A177:T183 A498:T557 A442:T476 A414:T416 A264:T264 A184:T215 A124:T176 A574:T580 A566:T573 A560:T565 A558:T559 A493:T497 A491:T492 A483:T490 A421:T441 A351:T384 A331:T350 A294:T329 A260:T263 A216:T259 A386:T413 A385:G385 J385:T385 A12:T12 A11:G11 I11:T11 A14:T123 A13:G13 N13:T13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>